--- a/hotelDeatils.xlsx
+++ b/hotelDeatils.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maaradwa\git\MakeMyTripAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C145F823-8D3A-40D7-8DBB-7253F4C78034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64154033-0802-4C1C-ADAA-65F7CFD453EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FCDF40A-899D-43C4-9390-5DFA883DC97B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HotelDetails" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>HotelName</t>
   </si>
@@ -44,15 +44,9 @@
     <t>HotelPrice</t>
   </si>
   <si>
-    <t>Anand Guest House</t>
-  </si>
-  <si>
     <t>Shivlok guest house</t>
   </si>
   <si>
-    <t>Maa Tulsi Guest House</t>
-  </si>
-  <si>
     <t>Hotel Natraj</t>
   </si>
   <si>
@@ -68,34 +62,46 @@
     <t>Rudransh Guest house</t>
   </si>
   <si>
-    <t>Hotel Winter</t>
-  </si>
-  <si>
     <t>Hotel T.A. Paradise</t>
   </si>
   <si>
-    <t>₹ 798</t>
-  </si>
-  <si>
-    <t>₹ 858</t>
-  </si>
-  <si>
-    <t>₹ 908</t>
-  </si>
-  <si>
-    <t>₹ 1,150</t>
-  </si>
-  <si>
-    <t>₹ 1,197</t>
-  </si>
-  <si>
-    <t>₹ 1,436</t>
-  </si>
-  <si>
-    <t>₹ 1,650</t>
-  </si>
-  <si>
     <t>₹ 1,704</t>
+  </si>
+  <si>
+    <t>Hotel City Light</t>
+  </si>
+  <si>
+    <t>Hotel Gujarat Heritage (Near Mahakal Mandir)</t>
+  </si>
+  <si>
+    <t>FabExpress Sundaram palace</t>
+  </si>
+  <si>
+    <t>₹ 889</t>
+  </si>
+  <si>
+    <t>₹ 902</t>
+  </si>
+  <si>
+    <t>₹ 1,015</t>
+  </si>
+  <si>
+    <t>₹ 1,439</t>
+  </si>
+  <si>
+    <t>₹ 1,441</t>
+  </si>
+  <si>
+    <t>₹ 1,498</t>
+  </si>
+  <si>
+    <t>₹ 1,524</t>
+  </si>
+  <si>
+    <t>₹ 1,569</t>
+  </si>
+  <si>
+    <t>₹ 1,746</t>
   </si>
 </sst>
 </file>
@@ -473,18 +479,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -492,63 +498,63 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1317</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
